--- a/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_5/bcw_train_60_test_40_depth_5_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_5/bcw_train_60_test_40_depth_5_report.xlsx
@@ -458,39 +458,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8876404494382022</v>
+        <v>0.9527027027027027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9294117647058824</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9080459770114943</v>
+        <v>0.9690721649484536</v>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9568345323741008</v>
+        <v>0.975</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9300699300699301</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9432624113475178</v>
+        <v>0.9454545454545454</v>
       </c>
       <c r="E3" t="n">
-        <v>143</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.9605263157894737</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9222374909061515</v>
+        <v>0.9638513513513514</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9297408473879063</v>
+        <v>0.9518305224187578</v>
       </c>
       <c r="D5" t="n">
-        <v>0.925654194179506</v>
+        <v>0.9572633552014995</v>
       </c>
       <c r="E5" t="n">
         <v>228</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9310384926830859</v>
+        <v>0.9610152916073968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9301334774941756</v>
+        <v>0.9602673506634439</v>
       </c>
       <c r="E6" t="n">
         <v>228</v>

--- a/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_5/bcw_train_60_test_40_depth_5_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_5/bcw_train_60_test_40_depth_5_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9527027027027027</v>
+        <v>0.95</v>
       </c>
       <c r="C2" t="n">
-        <v>0.986013986013986</v>
+        <v>0.99</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9690721649484536</v>
+        <v>0.97</v>
       </c>
       <c r="E2" t="n">
         <v>143</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.975</v>
+        <v>0.97</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9176470588235294</v>
+        <v>0.92</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9454545454545454</v>
+        <v>0.95</v>
       </c>
       <c r="E3" t="n">
         <v>85</v>
@@ -499,17 +499,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.9605263157894737</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9605263157894737</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.96</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9605263157894737</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +515,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9638513513513514</v>
+        <v>0.96</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9518305224187578</v>
+        <v>0.95</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9572633552014995</v>
+        <v>0.96</v>
       </c>
       <c r="E5" t="n">
         <v>228</v>
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9610152916073968</v>
+        <v>0.96</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.96</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9602673506634439</v>
+        <v>0.96</v>
       </c>
       <c r="E6" t="n">
         <v>228</v>
